--- a/Files/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/Files/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -130,21 +130,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" headerRowCount="1">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" headerRowCount="1">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
     <tableColumn id="3" name="Measure Data Type"/>
-    <tableColumn id="4" name="Measure Description"/>
+    <tableColumn id="4" name="Measure Folder"/>
+    <tableColumn id="5" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:I3" headerRowCount="1">
-  <autoFilter ref="A1:I3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:I5" headerRowCount="1">
+  <autoFilter ref="A1:I5"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +477,8 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,6 +499,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Measure Folder</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Measure Description</t>
         </is>
       </c>
@@ -509,7 +516,17 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>VAR RES = COUNTAX(FILTER('LDP Summary', 'LDP Summary'[First Result]="Completed"), 'LDP Summary'[Employee ID]) RETURN IF(RES = 0, 0, RES)</t>
+          <t xml:space="preserve">
+VAR RES =
+COUNTAX (
+    FILTER (
+        'LDP Summary',
+        'LDP Summary'[First Result] = "Completed"
+    ),
+    'LDP Summary'[Employee ID]
+)
+RETURN
+IF (RES = 0, 0, RES)</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -519,7 +536,12 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation determines the number of completed projects by employee. If there have been no completed projects, the result is 0, otherwise the result is the number of completed projects for the employee.</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is counting the number of completed LDP Summary records with an Employee ID. If the result of the count is zero (no completed records) then 0 is returned, otherwise the total count is returned.</t>
         </is>
       </c>
     </row>
@@ -531,7 +553,12 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>RANKX(CROSSJOIN(ALL('LDP Summary'[Employee ID]),ALL('LDP Summary'[Name])),[No of Specialization Completed],,DESC)</t>
+          <t xml:space="preserve">
+RANKX(
+    CROSSJOIN(ALL('LDP Summary'[Employee ID]), ALL('LDP Summary'[Name])), 
+    [No of Specialization Completed], 
+    ,DESC
+)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -541,7 +568,12 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation helps to rank the employee IDs and Names of a 'LDP Summary' based on the number of specialised tasks they complete. It will provide a list from highest number of specialised tasks down to the lowest number.</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>This calculation uses the RANKX function to rank the number of specializations completed by each employee. It gets the data from the CROSSJOIN of the Employee ID's and Names in the 'LDP Summary' table. The calculation uses a descending order ranking to give each employee a ranking based on the</t>
         </is>
       </c>
     </row>
@@ -553,7 +585,11 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>CALCULATE(COUNTROWS('LDP Summary'),'LDP Summary'[First Result] = "Completed")</t>
+          <t xml:space="preserve">
+CALCULATE(
+    COUNTROWS('LDP Summary'),
+    'LDP Summary'[First Result] = "Completed"
+)</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -563,7 +599,12 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of rows in the table named "LDP Summary" where the column called "First Result" is equal to "Completed". In other words, it is counting the number of entries from the LDP Summary table that have a "Completed" value in the "First Result" column</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is used to count the number of rows in the 'LDP Summary' table where the column 'First Result' contains the value "Completed". It evaluates the table each time it is used, so if more rows are added to the table with a 'First Result' of 'Completed', the count</t>
         </is>
       </c>
     </row>
@@ -575,7 +616,13 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>RANKX(ALL('LDP Summary'[Project Manager]),[No of Specialization Completed],,DESC,Dense)</t>
+          <t xml:space="preserve">
+RANKX(
+    ALL('LDP Summary'[Project Manager]), 
+    [No of Specialization Completed],
+    , DESC,
+    DENSE 
+)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -585,7 +632,12 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks the Project Managers based on the number of Specialization Completed in each Project. It measures the total number of specializations completed ('No of Specialization Completed') for all Project Managers ('LDP Summary'[Project Manager]), in descending order (DESC) and ensures that any unspecified ranks</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>This calculation provides a ranking of project managers based on the number of specializations they have completed. It ranks the project managers in descending order (high to low) based on the number of completed specializations, with ties being given the same rank. This rank is then applied to the entire 'LDP Summary'</t>
         </is>
       </c>
     </row>
@@ -671,7 +723,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -711,14 +763,14 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This statement changes the data types of certain columns in Table1_Table to text, Int64, number and any.
+          <t xml:space="preserve">1. The changed type operation is changing the table's column types (e.g. text, number, int64) for the columns "Name", "Employee ID", "Project Manager", "Specialization Name", "Completion Or Target Date", "Is LDP Goal", "LDP Completion Risk
 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -758,7 +810,7 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This sentence is changing the data types of the columns in the table Table1_Table to text, number, and text respectively.
+          <t xml:space="preserve">1. The table "Table1_Table" has been changed so that several of its columns have been converted to different data types.
 </t>
         </is>
       </c>
